--- a/AfDD_2022_Annex_Table_Tab02.xlsx
+++ b/AfDD_2022_Annex_Table_Tab02.xlsx
@@ -23,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="169">
-  <si>
-    <t>Back to Contents</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="168">
   <si>
     <t>Table 2: Annual real GDP growth rate 1990-2026</t>
   </si>
@@ -1373,11 +1370,9 @@
   <sheetData>
     <row r="1" spans="1:40" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -1419,10 +1414,10 @@
     </row>
     <row r="2" spans="1:40" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>3</v>
       </c>
       <c r="C2" s="8">
         <v>1990</v>
@@ -1536,15 +1531,15 @@
         <v>2026</v>
       </c>
       <c r="AN2" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>6</v>
       </c>
       <c r="C3" s="13">
         <v>-3.4500986845594999</v>
@@ -1663,10 +1658,10 @@
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>8</v>
       </c>
       <c r="C4" s="16">
         <v>8.7872308701490098</v>
@@ -1785,10 +1780,10 @@
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>10</v>
       </c>
       <c r="C5" s="20">
         <v>9.8585591219278399</v>
@@ -1907,10 +1902,10 @@
     </row>
     <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>12</v>
       </c>
       <c r="C6" s="20">
         <v>5.1911620507032703</v>
@@ -2029,10 +2024,10 @@
     </row>
     <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>14</v>
       </c>
       <c r="C7" s="20">
         <v>5.6922921094208601</v>
@@ -2151,10 +2146,10 @@
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>16</v>
       </c>
       <c r="C8" s="20">
         <v>1.0000000066591399</v>
@@ -2273,13 +2268,13 @@
     </row>
     <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="C9" s="20" t="s">
         <v>18</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>19</v>
       </c>
       <c r="D9" s="20">
         <v>5.3425826388666202</v>
@@ -2395,22 +2390,22 @@
     </row>
     <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="C10" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10" s="20">
         <v>3.2000000029717199</v>
@@ -2517,10 +2512,10 @@
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>22</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>23</v>
       </c>
       <c r="C11" s="16">
         <v>-0.57853612040580005</v>
@@ -2639,37 +2634,37 @@
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>25</v>
-      </c>
       <c r="C12" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K12" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L12" s="23">
         <v>-1.1106503930706</v>
@@ -2761,10 +2756,10 @@
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="26" t="s">
         <v>26</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>27</v>
       </c>
       <c r="C13" s="27">
         <v>1.20428046715143</v>
@@ -2883,10 +2878,10 @@
     </row>
     <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>28</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>29</v>
       </c>
       <c r="C14" s="20">
         <v>3.4582161167815899</v>
@@ -3005,10 +3000,10 @@
     </row>
     <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>31</v>
       </c>
       <c r="C15" s="20">
         <v>-6.1611132896683998</v>
@@ -3127,10 +3122,10 @@
     </row>
     <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>32</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>33</v>
       </c>
       <c r="C16" s="20">
         <v>1.3642481128152599</v>
@@ -3249,10 +3244,10 @@
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="29" t="s">
         <v>34</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>35</v>
       </c>
       <c r="C17" s="13">
         <v>3.2020109527388398</v>
@@ -3371,10 +3366,10 @@
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="29" t="s">
         <v>36</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>37</v>
       </c>
       <c r="C18" s="13">
         <v>1.00341413940339</v>
@@ -3493,10 +3488,10 @@
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>38</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>39</v>
       </c>
       <c r="C19" s="16">
         <v>-6.5683175275158998</v>
@@ -3615,10 +3610,10 @@
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="29" t="s">
         <v>40</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>41</v>
       </c>
       <c r="C20" s="13">
         <v>2.53652504609583</v>
@@ -3737,10 +3732,10 @@
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="29" t="s">
         <v>42</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>43</v>
       </c>
       <c r="C21" s="13">
         <v>5.1465845421031702</v>
@@ -3859,10 +3854,10 @@
     </row>
     <row r="22" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>44</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>45</v>
       </c>
       <c r="C22" s="20">
         <v>-2.1526457295653998</v>
@@ -3981,10 +3976,10 @@
     </row>
     <row r="23" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" s="27">
         <v>-3.0064788951459001</v>
@@ -4103,10 +4098,10 @@
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>47</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>48</v>
       </c>
       <c r="C24" s="20">
         <v>7.3628563367734303</v>
@@ -4225,13 +4220,13 @@
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="19" t="s">
-        <v>50</v>
-      </c>
       <c r="C25" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25" s="20">
         <v>-4.4564986709997996</v>
@@ -4347,19 +4342,19 @@
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="19" t="s">
-        <v>52</v>
-      </c>
       <c r="C26" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F26" s="20">
         <v>12.882087878903199</v>
@@ -4469,10 +4464,10 @@
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="19" t="s">
         <v>53</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>54</v>
       </c>
       <c r="C27" s="20">
         <v>2.6016433398670502</v>
@@ -4571,30 +4566,30 @@
         <v>1.98866562724791</v>
       </c>
       <c r="AI27" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ27" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK27" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL27" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM27" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN27" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="19" t="s">
         <v>55</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>56</v>
       </c>
       <c r="C28" s="20">
         <v>4.1336872416883503</v>
@@ -4713,10 +4708,10 @@
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="19" t="s">
         <v>57</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>58</v>
       </c>
       <c r="C29" s="20">
         <v>3.12890505042522</v>
@@ -4835,10 +4830,10 @@
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>59</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>60</v>
       </c>
       <c r="C30" s="20">
         <v>7.1867367328513101</v>
@@ -4957,10 +4952,10 @@
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A31" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="19" t="s">
         <v>61</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>62</v>
       </c>
       <c r="C31" s="20">
         <v>0.41896045389933001</v>
@@ -5079,10 +5074,10 @@
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A32" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="19" t="s">
         <v>63</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>64</v>
       </c>
       <c r="C32" s="20">
         <v>7.4547663188184803</v>
@@ -5201,76 +5196,76 @@
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="19" t="s">
-        <v>66</v>
-      </c>
       <c r="C33" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I33" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J33" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K33" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L33" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M33" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N33" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O33" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P33" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q33" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R33" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S33" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T33" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U33" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V33" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="W33" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X33" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y33" s="20">
         <v>1.1999999989089001</v>
@@ -5323,76 +5318,76 @@
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="15" t="s">
-        <v>68</v>
-      </c>
       <c r="C34" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J34" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L34" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M34" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N34" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O34" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P34" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q34" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R34" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S34" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T34" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U34" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V34" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="W34" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X34" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y34" s="16">
         <v>-52.429181959071997</v>
@@ -5445,10 +5440,10 @@
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A35" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="19" t="s">
         <v>69</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>70</v>
       </c>
       <c r="C35" s="20">
         <v>0.83792357251756999</v>
@@ -5567,10 +5562,10 @@
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="19" t="s">
         <v>71</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>72</v>
       </c>
       <c r="C36" s="20">
         <v>7.0451462180956703</v>
@@ -5689,10 +5684,10 @@
     </row>
     <row r="37" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="C37" s="20">
         <v>6.4974182445175703</v>
@@ -5811,10 +5806,10 @@
     </row>
     <row r="38" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C38" s="27">
         <v>3.7036385010599799</v>
@@ -5933,10 +5928,10 @@
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="30" t="s">
         <v>76</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>77</v>
       </c>
       <c r="C39" s="13">
         <v>0.79999999786346998</v>
@@ -6055,10 +6050,10 @@
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="19" t="s">
         <v>78</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>79</v>
       </c>
       <c r="C40" s="20">
         <v>2.3496806019966101</v>
@@ -6177,10 +6172,10 @@
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="30" t="s">
         <v>80</v>
-      </c>
-      <c r="B41" s="30" t="s">
-        <v>81</v>
       </c>
       <c r="C41" s="13">
         <v>3.7201234590462402</v>
@@ -6299,13 +6294,13 @@
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="30" t="s">
-        <v>83</v>
-      </c>
       <c r="C42" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D42" s="13">
         <v>0</v>
@@ -6421,10 +6416,10 @@
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A43" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="19" t="s">
         <v>84</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>85</v>
       </c>
       <c r="C43" s="20">
         <v>4.0347317642658096</v>
@@ -6543,10 +6538,10 @@
     </row>
     <row r="44" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="19" t="s">
         <v>86</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>87</v>
       </c>
       <c r="C44" s="20">
         <v>7.0745419875459801</v>
@@ -6665,10 +6660,10 @@
     </row>
     <row r="45" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C45" s="27">
         <v>2.5393937452131299</v>
@@ -6787,10 +6782,10 @@
     </row>
     <row r="46" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A46" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="19" t="s">
         <v>89</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>90</v>
       </c>
       <c r="C46" s="20">
         <v>8.9761369105378499</v>
@@ -6909,10 +6904,10 @@
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A47" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="19" t="s">
         <v>91</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>92</v>
       </c>
       <c r="C47" s="20">
         <v>-0.6029275058586</v>
@@ -7031,10 +7026,10 @@
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A48" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>94</v>
       </c>
       <c r="C48" s="20">
         <v>0.69244423717625003</v>
@@ -7153,10 +7148,10 @@
     </row>
     <row r="49" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A49" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="19" t="s">
         <v>95</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>96</v>
       </c>
       <c r="C49" s="20">
         <v>-1.0900000058454</v>
@@ -7275,10 +7270,10 @@
     </row>
     <row r="50" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A50" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" s="19" t="s">
         <v>97</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>98</v>
       </c>
       <c r="C50" s="20">
         <v>5.6959486562600201</v>
@@ -7397,10 +7392,10 @@
     </row>
     <row r="51" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="15" t="s">
         <v>99</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>100</v>
       </c>
       <c r="C51" s="16">
         <v>3.59516075325921</v>
@@ -7519,10 +7514,10 @@
     </row>
     <row r="52" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A52" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="19" t="s">
         <v>101</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>102</v>
       </c>
       <c r="C52" s="20">
         <v>4.3240615273079603</v>
@@ -7641,10 +7636,10 @@
     </row>
     <row r="53" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A53" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="19" t="s">
         <v>103</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>104</v>
       </c>
       <c r="C53" s="20">
         <v>4.5797155118592103</v>
@@ -7763,43 +7758,43 @@
     </row>
     <row r="54" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A54" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="B54" s="19" t="s">
-        <v>106</v>
-      </c>
       <c r="C54" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H54" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I54" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J54" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K54" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L54" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M54" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N54" s="20">
         <v>2.7584188473866802</v>
@@ -7885,10 +7880,10 @@
     </row>
     <row r="55" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A55" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="19" t="s">
         <v>107</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>108</v>
       </c>
       <c r="C55" s="20">
         <v>9.3103527023339598</v>
@@ -8007,10 +8002,10 @@
     </row>
     <row r="56" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" s="19" t="s">
         <v>109</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>110</v>
       </c>
       <c r="C56" s="20">
         <v>-1.3084587106843</v>
@@ -8129,13 +8124,13 @@
     </row>
     <row r="57" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="B57" s="30" t="s">
-        <v>112</v>
-      </c>
       <c r="C57" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D57" s="13">
         <v>-0.55202975792999998</v>
@@ -8251,10 +8246,10 @@
     </row>
     <row r="58" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A58" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="19" t="s">
         <v>113</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>114</v>
       </c>
       <c r="C58" s="20">
         <v>-0.67563815011799999</v>
@@ -8373,10 +8368,10 @@
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A59" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>116</v>
       </c>
       <c r="C59" s="20">
         <v>1.61080330958976</v>
@@ -8495,10 +8490,10 @@
     </row>
     <row r="60" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" s="15" t="s">
         <v>117</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>118</v>
       </c>
       <c r="C60" s="16">
         <v>5.8972437581777504</v>
@@ -8617,10 +8612,10 @@
     </row>
     <row r="61" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C61" s="27">
         <v>2.0025135619960399</v>
@@ -8739,10 +8734,10 @@
     </row>
     <row r="62" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C62" s="33">
         <v>2.1299485105750202</v>
@@ -8861,10 +8856,10 @@
     </row>
     <row r="63" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B63" s="32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C63" s="33">
         <v>3.5707910087369901</v>
@@ -8983,10 +8978,10 @@
     </row>
     <row r="64" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A64" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C64" s="37">
         <v>0.62849978160615005</v>
@@ -9105,10 +9100,10 @@
     </row>
     <row r="65" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A65" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B65" s="39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C65" s="40">
         <v>7.0711397064580099</v>
@@ -9227,10 +9222,10 @@
     </row>
     <row r="66" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B66" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C66" s="43">
         <v>3.5164226266065999</v>
@@ -9349,10 +9344,10 @@
     </row>
     <row r="67" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A67" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B67" s="39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C67" s="40">
         <v>2.5435364662355799</v>
@@ -9471,10 +9466,10 @@
     </row>
     <row r="68" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A68" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B68" s="39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C68" s="40">
         <v>2.86678881459502</v>
@@ -9593,10 +9588,10 @@
     </row>
     <row r="69" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A69" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B69" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C69" s="40">
         <v>5.1005458095401899</v>
@@ -9715,10 +9710,10 @@
     </row>
     <row r="70" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A70" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B70" s="39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C70" s="40">
         <v>-2.9613877736234002</v>
@@ -9837,10 +9832,10 @@
     </row>
     <row r="71" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A71" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B71" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C71" s="40">
         <v>2.0025135619960399</v>
@@ -9959,10 +9954,10 @@
     </row>
     <row r="72" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A72" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B72" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C72" s="40">
         <v>2.9917478336508698</v>
@@ -10081,10 +10076,10 @@
     </row>
     <row r="73" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A73" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B73" s="39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C73" s="40">
         <v>0.80348632056920999</v>
@@ -10203,10 +10198,10 @@
     </row>
     <row r="74" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A74" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B74" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C74" s="40">
         <v>2.6506354088504498</v>
@@ -10325,10 +10320,10 @@
     </row>
     <row r="75" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B75" s="42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C75" s="43">
         <v>-2.3783277870255</v>
@@ -10447,10 +10442,10 @@
     </row>
     <row r="76" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A76" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B76" s="39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C76" s="40">
         <v>8.3797414418668303</v>
@@ -10569,10 +10564,10 @@
     </row>
     <row r="77" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A77" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B77" s="39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C77" s="40">
         <v>-1.2643364013627001</v>
@@ -10691,10 +10686,10 @@
     </row>
     <row r="78" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A78" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B78" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C78" s="40">
         <v>2.7172322912442501</v>
@@ -10813,10 +10808,10 @@
     </row>
     <row r="79" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B79" s="42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C79" s="43">
         <v>3.06059472604184</v>
@@ -10935,10 +10930,10 @@
     </row>
     <row r="80" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A80" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B80" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C80" s="40">
         <v>1.67542445194713</v>
@@ -11057,10 +11052,10 @@
     </row>
     <row r="81" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A81" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B81" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C81" s="40">
         <v>12.7946935126173</v>
@@ -11179,10 +11174,10 @@
     </row>
     <row r="82" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A82" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B82" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C82" s="40">
         <v>2.3492008096765802</v>
@@ -11301,10 +11296,10 @@
     </row>
     <row r="83" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B83" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C83" s="43">
         <v>3.0104098872482798</v>
@@ -11423,10 +11418,10 @@
     </row>
     <row r="84" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A84" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B84" s="39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C84" s="40">
         <v>1.07056133668686</v>
@@ -11545,10 +11540,10 @@
     </row>
     <row r="85" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A85" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B85" s="39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C85" s="40">
         <v>10.3577739008315</v>
@@ -11667,10 +11662,10 @@
     </row>
     <row r="86" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A86" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B86" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C86" s="40">
         <v>1.9928813272367101</v>
@@ -11789,10 +11784,10 @@
     </row>
     <row r="87" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A87" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B87" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C87" s="40">
         <v>7.8791176905814897</v>
@@ -11911,10 +11906,10 @@
     </row>
     <row r="88" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A88" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B88" s="39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C88" s="40">
         <v>4.2805043376205996</v>
@@ -12033,10 +12028,10 @@
     </row>
     <row r="89" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A89" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B89" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C89" s="40">
         <v>2.17473367590339</v>
@@ -12155,10 +12150,10 @@
     </row>
     <row r="90" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B90" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C90" s="43">
         <v>3.2724862420662602</v>
@@ -12277,10 +12272,10 @@
     </row>
     <row r="91" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A91" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B91" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C91" s="40">
         <v>1.3357299529356399</v>
@@ -12399,10 +12394,10 @@
     </row>
     <row r="92" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A92" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B92" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C92" s="40">
         <v>4.9193014123526799</v>
@@ -12521,10 +12516,10 @@
     </row>
     <row r="93" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A93" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B93" s="39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C93" s="40">
         <v>6.2947884732466202</v>
@@ -12643,10 +12638,10 @@
     </row>
     <row r="94" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A94" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B94" s="39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C94" s="40">
         <v>3.98080081840516</v>
@@ -12765,10 +12760,10 @@
     </row>
     <row r="95" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A95" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B95" s="39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C95" s="40">
         <v>3.6530648116562801</v>
@@ -12887,10 +12882,10 @@
     </row>
     <row r="96" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B96" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C96" s="43">
         <v>3.8618899573263299</v>
@@ -13009,10 +13004,10 @@
     </row>
     <row r="97" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A97" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B97" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C97" s="40">
         <v>1.5519728031950799</v>
@@ -13131,10 +13126,10 @@
     </row>
     <row r="98" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A98" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B98" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C98" s="40">
         <v>10.5408292485918</v>
@@ -13253,10 +13248,10 @@
     </row>
     <row r="99" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B99" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C99" s="43">
         <v>1.59998426598294</v>
@@ -13417,32 +13412,32 @@
     </row>
     <row r="101" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A101" s="48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="102" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A102" s="48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="103" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A103" s="48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A104" s="48" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="105" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A105" s="48" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="107" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B107" s="51" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="108" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
@@ -13450,27 +13445,27 @@
     </row>
     <row r="109" spans="1:40" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="110" spans="1:40" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="111" spans="1:40" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="112" spans="1:40" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -13480,7 +13475,6 @@
     <hyperlink ref="B111" r:id="rId3"/>
     <hyperlink ref="B112" r:id="rId4"/>
     <hyperlink ref="B113" r:id="rId5"/>
-    <hyperlink ref="B1" location="Contents!A1" display="Back to Contents"/>
     <hyperlink ref="B107" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AfDD_2022_Annex_Table_Tab02.xlsx
+++ b/AfDD_2022_Annex_Table_Tab02.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab02" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="168">
   <si>
-    <t>Table 2: Annual real GDP growth rate 1990-2026</t>
+    <t>Table 2: Annual real GDP growth rate, 1990-2026</t>
   </si>
   <si>
     <t>ISO3 Code</t>
@@ -505,6 +505,9 @@
     <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
+    <t>Disclaimer: This document, as well as any data and map included herein, are without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
+  </si>
+  <si>
     <t>Figures up to 2020 are estimates. For 2021 onwards, they are projections.</t>
   </si>
   <si>
@@ -520,88 +523,10 @@
     <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">To download all data for the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Africa's Development Dynamics</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> statistical annex in compressed csv format, including historic data back to 2000, click here.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">To download all data for the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Africa's Development Dynamics</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> statistical annex in uncompressed Excel format, including historic data back to 2000, click here to download the first of two data files.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">To download all data for the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Africa's Development Dynamics</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> statistical annex in uncompressed Excel format, including historic data back to 2000, click here to download the second of two data files.</t>
-    </r>
+    <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
+  </si>
+  <si>
+    <t>To download the entire dataset as a flat file in compressed CSV form, click here.</t>
   </si>
 </sst>
 </file>
@@ -612,7 +537,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -728,15 +653,6 @@
       <i/>
       <u/>
       <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <u/>
-      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1356,7 +1272,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AN113"/>
+  <dimension ref="A1:AN114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -13435,18 +13351,18 @@
         <v>161</v>
       </c>
     </row>
-    <row r="107" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B107" s="51" t="s">
+    <row r="106" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A106" s="48" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="108" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B108" s="51"/>
+      <c r="B108" s="51" t="s">
+        <v>163</v>
+      </c>
     </row>
-    <row r="109" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B109" s="2" t="s">
-        <v>163</v>
-      </c>
+    <row r="109" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B109" s="51"/>
     </row>
     <row r="110" spans="1:40" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
@@ -13459,25 +13375,27 @@
       </c>
     </row>
     <row r="112" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B112" s="2" t="s">
-        <v>166</v>
-      </c>
+      <c r="B112" s="2"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B114" s="2" t="s">
         <v>167</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1"/>
-    <hyperlink ref="B110" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
-    <hyperlink ref="B111" r:id="rId3"/>
-    <hyperlink ref="B112" r:id="rId4"/>
-    <hyperlink ref="B113" r:id="rId5"/>
-    <hyperlink ref="B107" r:id="rId6"/>
+    <hyperlink ref="B110" r:id="rId1"/>
+    <hyperlink ref="B111" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
+    <hyperlink ref="B114" r:id="rId3"/>
+    <hyperlink ref="B113" r:id="rId4"/>
+    <hyperlink ref="B108" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="41" fitToHeight="0" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" scale="35" fitToHeight="0" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/AfDD_2022_Annex_Table_Tab02.xlsx
+++ b/AfDD_2022_Annex_Table_Tab02.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab02" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab02.xlsx
+++ b/AfDD_2022_Annex_Table_Tab02.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab02" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab02.xlsx
+++ b/AfDD_2022_Annex_Table_Tab02.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab02" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab02.xlsx
+++ b/AfDD_2022_Annex_Table_Tab02.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Tab02" sheetId="1" r:id="rId1"/>
@@ -505,10 +505,10 @@
     <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
+    <t>Figures up to 2020 are estimates. For 2021 onwards, they are projections.</t>
+  </si>
+  <si>
     <t>Disclaimer: This document, as well as any data and map included herein, are without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
-  </si>
-  <si>
-    <t>Figures up to 2020 are estimates. For 2021 onwards, they are projections.</t>
   </si>
   <si>
     <t>Source: IMF World Economic Outlook Database October 2021.</t>
@@ -12316,118 +12316,118 @@
         <v>149</v>
       </c>
       <c r="C92" s="40">
-        <v>4.9193014123526799</v>
+        <v>4.9082974678158404</v>
       </c>
       <c r="D92" s="40">
-        <v>4.1148373971733196</v>
+        <v>4.1161471992192098</v>
       </c>
       <c r="E92" s="40">
-        <v>4.9764086669372896</v>
+        <v>4.9795779594751801</v>
       </c>
       <c r="F92" s="40">
-        <v>3.67550727290116</v>
+        <v>3.6792987026230999</v>
       </c>
       <c r="G92" s="40">
-        <v>4.2343543998584696</v>
+        <v>4.2278155937395097</v>
       </c>
       <c r="H92" s="40">
-        <v>5.3545136588546196</v>
+        <v>5.3601470391662698</v>
       </c>
       <c r="I92" s="40">
-        <v>4.7835313451650503</v>
+        <v>4.7866299648629802</v>
       </c>
       <c r="J92" s="40">
-        <v>5.1488063902663601</v>
+        <v>5.1491111831275402</v>
       </c>
       <c r="K92" s="40">
-        <v>4.8588222280931896</v>
+        <v>4.8633041494592204</v>
       </c>
       <c r="L92" s="40">
-        <v>5.2331183245886397</v>
+        <v>5.2381200138177597</v>
       </c>
       <c r="M92" s="40">
-        <v>6.6700402708711701</v>
+        <v>6.6707980544550303</v>
       </c>
       <c r="N92" s="40">
-        <v>5.9164103308075102</v>
+        <v>5.9250451481087199</v>
       </c>
       <c r="O92" s="40">
-        <v>4.7153768439813097</v>
+        <v>4.7236851643369704</v>
       </c>
       <c r="P92" s="40">
-        <v>6.31883788610451</v>
+        <v>6.3204272501946299</v>
       </c>
       <c r="Q92" s="40">
-        <v>6.85965411981066</v>
+        <v>6.8618468138847302</v>
       </c>
       <c r="R92" s="40">
-        <v>7.4478340357630897</v>
+        <v>7.4494361163856402</v>
       </c>
       <c r="S92" s="40">
-        <v>7.1010870683132401</v>
+        <v>7.1000540233949101</v>
       </c>
       <c r="T92" s="40">
-        <v>7.7542449681895196</v>
+        <v>7.75778645710328</v>
       </c>
       <c r="U92" s="40">
-        <v>5.9282344967549099</v>
+        <v>5.9284702383249197</v>
       </c>
       <c r="V92" s="40">
-        <v>5.4965678506329096</v>
+        <v>5.4983087739577101</v>
       </c>
       <c r="W92" s="40">
-        <v>5.6263247053905401</v>
+        <v>5.6292828671900601</v>
       </c>
       <c r="X92" s="40">
-        <v>4.2507144496798999</v>
+        <v>4.2514629136790001</v>
       </c>
       <c r="Y92" s="40">
-        <v>6.3731334476580299</v>
+        <v>6.3764751381104503</v>
       </c>
       <c r="Z92" s="40">
-        <v>6.1189026849425598</v>
+        <v>6.1222456869047202</v>
       </c>
       <c r="AA92" s="40">
-        <v>5.6841447162638801</v>
+        <v>5.6856250278271903</v>
       </c>
       <c r="AB92" s="40">
-        <v>4.09818109810716</v>
+        <v>4.10030377432291</v>
       </c>
       <c r="AC92" s="40">
-        <v>5.2530054375590396</v>
+        <v>5.2533287853847002</v>
       </c>
       <c r="AD92" s="40">
-        <v>6.1294438794096298</v>
+        <v>6.1293371559585701</v>
       </c>
       <c r="AE92" s="40">
-        <v>6.6511037205377601</v>
+        <v>6.6531777635972498</v>
       </c>
       <c r="AF92" s="40">
-        <v>6.8557980362385296</v>
+        <v>6.8573768297427797</v>
       </c>
       <c r="AG92" s="40">
-        <v>1.6165026358119501</v>
+        <v>1.6207547441336601</v>
       </c>
       <c r="AH92" s="40">
-        <v>0.30660618482029001</v>
+        <v>0.30611602077632999</v>
       </c>
       <c r="AI92" s="40">
-        <v>4.9637813651848202</v>
+        <v>4.9648253772872399</v>
       </c>
       <c r="AJ92" s="40">
-        <v>6.1900946191507096</v>
+        <v>6.1911716691464198</v>
       </c>
       <c r="AK92" s="40">
-        <v>6.1947323801071201</v>
+        <v>6.1959938128885499</v>
       </c>
       <c r="AL92" s="40">
-        <v>6.1690489591117297</v>
+        <v>6.1707035533356001</v>
       </c>
       <c r="AM92" s="40">
-        <v>6.1175654242696602</v>
+        <v>6.1191575262333799</v>
       </c>
       <c r="AN92" s="41">
-        <v>5.9259410704577897</v>
+        <v>5.9272663152274703</v>
       </c>
     </row>
     <row r="93" spans="1:40" x14ac:dyDescent="0.35">
@@ -12560,7 +12560,7 @@
         <v>151</v>
       </c>
       <c r="C94" s="40">
-        <v>3.98080081840516</v>
+        <v>3.9808008184051702</v>
       </c>
       <c r="D94" s="40">
         <v>3.5799686064028502</v>

--- a/AfDD_2022_Annex_Table_Tab02.xlsx
+++ b/AfDD_2022_Annex_Table_Tab02.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab02" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab02.xlsx
+++ b/AfDD_2022_Annex_Table_Tab02.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab02" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab02.xlsx
+++ b/AfDD_2022_Annex_Table_Tab02.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab02" sheetId="1" r:id="rId1"/>
@@ -514,7 +514,7 @@
     <t>Source: IMF World Economic Outlook Database April 2022.</t>
   </si>
   <si>
-    <t>If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
+    <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
   </si>
   <si>
     <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details.</t>
@@ -12260,7 +12260,7 @@
         <v>7.6270465341108702</v>
       </c>
       <c r="S89" s="40">
-        <v>8.8976969566912096</v>
+        <v>8.8976969566912203</v>
       </c>
       <c r="T89" s="40">
         <v>9.6229948524451991</v>
@@ -12293,7 +12293,7 @@
         <v>4.1514298647808001</v>
       </c>
       <c r="AD89" s="40">
-        <v>5.03529910089431</v>
+        <v>5.0352991008943002</v>
       </c>
       <c r="AE89" s="40">
         <v>4.7729264643125102</v>
@@ -13689,7 +13689,7 @@
     <hyperlink ref="B111" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
     <hyperlink ref="B114" r:id="rId3"/>
     <hyperlink ref="B113" r:id="rId4"/>
-    <hyperlink ref="B108" r:id="rId5"/>
+    <hyperlink ref="B108" r:id="rId5" display="If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="35" fitToHeight="0" orientation="portrait" r:id="rId6"/>
